--- a/simple2fjsp/PDR结果对比.xlsx
+++ b/simple2fjsp/PDR结果对比.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18288" windowHeight="9180" activeTab="7"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MK" sheetId="1" r:id="rId1"/>
@@ -1443,7 +1443,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F12"/>
+      <selection activeCell="H2" sqref="H2:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1941,28 +1941,52 @@
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="1">
-        <f>AVERAGE(B2:B11)</f>
+        <f t="shared" ref="B12:G12" si="1">AVERAGE(B2:B11)</f>
         <v>236.4</v>
       </c>
       <c r="C12" s="1">
-        <f>AVERAGE(C2:C11)</f>
+        <f t="shared" si="1"/>
         <v>205.3</v>
       </c>
       <c r="D12" s="1">
-        <f>AVERAGE(D2:D11)</f>
+        <f t="shared" si="1"/>
         <v>214.6</v>
       </c>
       <c r="E12" s="1">
-        <f>AVERAGE(E2:E11)</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="F12" s="1">
-        <f>AVERAGE(F2:F11)</f>
+        <f t="shared" si="1"/>
         <v>193.9</v>
       </c>
       <c r="G12" s="1">
-        <f>AVERAGE(G2:G11)</f>
+        <f t="shared" si="1"/>
         <v>201.7</v>
+      </c>
+      <c r="H12" s="1">
+        <f>AVERAGE(H2:H11)</f>
+        <v>269.7</v>
+      </c>
+      <c r="I12" s="1">
+        <f>AVERAGE(I2:I11)</f>
+        <v>214.3</v>
+      </c>
+      <c r="J12" s="1">
+        <f>AVERAGE(J2:J11)</f>
+        <v>243.3</v>
+      </c>
+      <c r="K12" s="1">
+        <f>AVERAGE(K2:K11)</f>
+        <v>209.5</v>
+      </c>
+      <c r="L12" s="1">
+        <f>AVERAGE(L2:L11)</f>
+        <v>201.2</v>
+      </c>
+      <c r="M12" s="1">
+        <f>AVERAGE(M2:M11)</f>
+        <v>218.8</v>
       </c>
       <c r="N12">
         <f>AVERAGE(N2:N11)</f>
@@ -1981,7 +2005,7 @@
   <sheetPr/>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -9827,7 +9851,7 @@
   <sheetPr/>
   <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P7" sqref="P7:P47"/>
     </sheetView>
   </sheetViews>
@@ -15479,11 +15503,16 @@
   <sheetPr/>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="9.66666666666667"/>
+    <col min="9" max="9" width="9.66666666666667"/>
+    <col min="12" max="12" width="9.66666666666667"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1"/>
@@ -17512,10 +17541,54 @@
       </c>
       <c r="P41" s="3"/>
     </row>
-    <row r="42" spans="4:15">
+    <row r="42" spans="3:15">
+      <c r="C42">
+        <f>AVERAGE(C2:C41)</f>
+        <v>1079.275</v>
+      </c>
       <c r="D42">
         <f>AVERAGE(D2:D41)</f>
         <v>947.65</v>
+      </c>
+      <c r="E42">
+        <f>AVERAGE(E2:E41)</f>
+        <v>1034.55</v>
+      </c>
+      <c r="F42">
+        <f>AVERAGE(F2:F41)</f>
+        <v>969.55</v>
+      </c>
+      <c r="G42">
+        <f>AVERAGE(G2:G41)</f>
+        <v>964.55</v>
+      </c>
+      <c r="H42">
+        <f>AVERAGE(H2:H41)</f>
+        <v>976.175</v>
+      </c>
+      <c r="I42">
+        <f>AVERAGE(I2:I41)</f>
+        <v>1073.675</v>
+      </c>
+      <c r="J42">
+        <f>AVERAGE(J2:J41)</f>
+        <v>1142.8</v>
+      </c>
+      <c r="K42">
+        <f>AVERAGE(K2:K41)</f>
+        <v>1090.25</v>
+      </c>
+      <c r="L42">
+        <f>AVERAGE(L2:L41)</f>
+        <v>1100.275</v>
+      </c>
+      <c r="M42">
+        <f>AVERAGE(M2:M41)</f>
+        <v>1142.05</v>
+      </c>
+      <c r="N42">
+        <f>AVERAGE(N2:N41)</f>
+        <v>1107.6</v>
       </c>
       <c r="O42">
         <f>AVERAGE(O2:O41)</f>
